--- a/data-raw/snorkel_buit_table.xlsx
+++ b/data-raw/snorkel_buit_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\edi-feather-snorkel\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F10A51E-5C5C-4FBC-A1A2-7333AFA2201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3922D53-0494-4799-BED7-860DFBEDF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="140" windowWidth="14860" windowHeight="14340" xr2:uid="{587829D2-FD03-4E25-88F1-9BE0668E98CA}"/>
   </bookViews>
